--- a/data/trans_dic/P23_1_R_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Dificultad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.409344284214304</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3579856637177406</v>
+        <v>0.3579856637177407</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.296353865143012</v>
@@ -624,7 +624,7 @@
         <v>0.3497607815747389</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2768517807975053</v>
+        <v>0.2768517807975054</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.379106983969291</v>
+        <v>0.3796518200558249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3099694302160968</v>
+        <v>0.3111480453556207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2704951736198933</v>
+        <v>0.2705883348160281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1836122035167036</v>
+        <v>0.1828134800540107</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3311883687404041</v>
+        <v>0.3296878827355615</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.252441236887656</v>
+        <v>0.2502396224308641</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4368134830123294</v>
+        <v>0.4392541339372831</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.404189163059253</v>
+        <v>0.4087272119138066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3248194344677637</v>
+        <v>0.3199726266354663</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2425929630773831</v>
+        <v>0.2420014040636638</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3726498344362861</v>
+        <v>0.369010715407996</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3053963825763687</v>
+        <v>0.3040388706199733</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.3319143783625979</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2489297220652246</v>
+        <v>0.2489297220652245</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2378395567579761</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3021001166762791</v>
+        <v>0.3013422397655954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2182939365381837</v>
+        <v>0.2168098472839971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2151438170917438</v>
+        <v>0.2115643883994488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1594084122050141</v>
+        <v>0.1589659308952529</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2617427147459595</v>
+        <v>0.2621774759580348</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1939959238068663</v>
+        <v>0.1953856212377707</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3640357698090405</v>
+        <v>0.3627261572469756</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2819585071544365</v>
+        <v>0.2817824060240119</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.266694764306273</v>
+        <v>0.2644414407817718</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1989760694452345</v>
+        <v>0.2019327861932439</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3020906794544961</v>
+        <v>0.303078067799436</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2288529516046816</v>
+        <v>0.2301165484081053</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2217680169587425</v>
+        <v>0.2185241509850165</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1958083343853484</v>
+        <v>0.1935838932599893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1637498911049088</v>
+        <v>0.1628912598711434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1344892361493502</v>
+        <v>0.1324334337584921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2005680972136874</v>
+        <v>0.2009216781959503</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1714478837883324</v>
+        <v>0.1703597319008708</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2819167134133438</v>
+        <v>0.2818807270138151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2496932338726193</v>
+        <v>0.2507356723520086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2191325274707104</v>
+        <v>0.2227516990589671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1747616609218066</v>
+        <v>0.1722499128513994</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2435447216546123</v>
+        <v>0.2434518902497448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2039718496175332</v>
+        <v>0.2048805822736634</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.2247752861331695</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1670983289301773</v>
+        <v>0.1670983289301772</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1694096142763176</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1889895522862782</v>
+        <v>0.1919502883601329</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1418449495726835</v>
+        <v>0.1421332906594154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1354968767072736</v>
+        <v>0.1391492086621514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1261310137292509</v>
+        <v>0.1278369535530086</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1712056279155575</v>
+        <v>0.1743891849797438</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1410086362034332</v>
+        <v>0.1407715367891521</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2657771616436453</v>
+        <v>0.2654520505944223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1952175165766652</v>
+        <v>0.1961759289095383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2075996649528939</v>
+        <v>0.2050195517859602</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1692191874116134</v>
+        <v>0.1714857380532556</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2233753546492108</v>
+        <v>0.2230509625967566</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1770768438103752</v>
+        <v>0.1753746038737758</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.2792391060588187</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2005076936109574</v>
+        <v>0.2005076936109573</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3053369896113429</v>
+        <v>0.305484610241517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2179746856192254</v>
+        <v>0.216862087709069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2244250261954907</v>
+        <v>0.2254579011234502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1593829084694545</v>
+        <v>0.1593940808038698</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.268119964559743</v>
+        <v>0.2679460977381562</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.190631705144821</v>
+        <v>0.1913341082531499</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3389420094918841</v>
+        <v>0.3380696344176265</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2494799801458305</v>
+        <v>0.2494077362734642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2528541016782109</v>
+        <v>0.2538103606794311</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1815762828298455</v>
+        <v>0.1819201860089187</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2900977153153911</v>
+        <v>0.2900449692955649</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.210712144426725</v>
+        <v>0.2108965538369012</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>427632</v>
+        <v>428246</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>154594</v>
+        <v>155182</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>340405</v>
+        <v>340522</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>114497</v>
+        <v>113999</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>790364</v>
+        <v>786783</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>283320</v>
+        <v>280849</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>492724</v>
+        <v>495477</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>201585</v>
+        <v>203848</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>408770</v>
+        <v>402670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>151276</v>
+        <v>150907</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>889310</v>
+        <v>880625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>342752</v>
+        <v>341229</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>274556</v>
+        <v>273867</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>209592</v>
+        <v>208167</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>215840</v>
+        <v>212249</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>177876</v>
+        <v>177382</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>500468</v>
+        <v>501299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>402733</v>
+        <v>405618</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>330845</v>
+        <v>329655</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>270719</v>
+        <v>270550</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>267558</v>
+        <v>265297</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>222027</v>
+        <v>225326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>577616</v>
+        <v>579503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>475096</v>
+        <v>477719</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>182254</v>
+        <v>179588</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>204909</v>
+        <v>202581</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>126083</v>
+        <v>125421</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>140897</v>
+        <v>138743</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>319263</v>
+        <v>319826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>359033</v>
+        <v>356754</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>231686</v>
+        <v>231656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>261299</v>
+        <v>262390</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>168725</v>
+        <v>171512</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>183088</v>
+        <v>180456</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>387673</v>
+        <v>387525</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>427142</v>
+        <v>429045</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95761</v>
+        <v>97261</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>138269</v>
+        <v>138550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66353</v>
+        <v>68141</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>114120</v>
+        <v>115663</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>170589</v>
+        <v>173761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>265034</v>
+        <v>264588</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134670</v>
+        <v>134505</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>190295</v>
+        <v>191230</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>101661</v>
+        <v>100398</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>153104</v>
+        <v>155155</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>222571</v>
+        <v>222248</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>332826</v>
+        <v>329627</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1027565</v>
+        <v>1028061</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>758583</v>
+        <v>754711</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>790280</v>
+        <v>793917</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>588416</v>
+        <v>588458</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1846462</v>
+        <v>1845264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1367208</v>
+        <v>1372245</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1140657</v>
+        <v>1137721</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>868226</v>
+        <v>867975</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>890389</v>
+        <v>893756</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>670351</v>
+        <v>671620</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1997816</v>
+        <v>1997453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1511224</v>
+        <v>1512547</v>
       </c>
     </row>
     <row r="24">
